--- a/data/items/properties.xlsx
+++ b/data/items/properties.xlsx
@@ -14,132 +14,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>dcterms:coverage</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
     <t>dcterms:identifier</t>
   </si>
   <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:issued</t>
-  </si>
-  <si>
-    <t>dcterms:mediator</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
+    <t>dcterms:modified</t>
   </si>
   <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>ex:age</t>
+  </si>
+  <si>
+    <t>ex:author</t>
+  </si>
+  <si>
+    <t>ex:deficit</t>
+  </si>
+  <si>
+    <t>ex:destination</t>
+  </si>
+  <si>
+    <t>ex:figure</t>
+  </si>
+  <si>
+    <t>ex:ibun</t>
+  </si>
+  <si>
+    <t>ex:japaneseCalendarDate</t>
+  </si>
+  <si>
+    <t>ex:japaneseCalendarYear</t>
+  </si>
+  <si>
+    <t>ex:kanagawakenshi</t>
+  </si>
+  <si>
+    <t>ex:kinbunbango</t>
+  </si>
+  <si>
+    <t>ex:medium</t>
+  </si>
+  <si>
+    <t>ex:note</t>
+  </si>
+  <si>
+    <t>ex:seiribango</t>
+  </si>
+  <si>
+    <t>ex:sequence</t>
+  </si>
+  <si>
+    <t>ex:shihai</t>
+  </si>
+  <si>
+    <t>ex:subject</t>
+  </si>
+  <si>
+    <t>ex:transcript</t>
+  </si>
+  <si>
+    <t>ex:volume</t>
+  </si>
+  <si>
+    <t>ex:yearCode</t>
+  </si>
+  <si>
+    <t>schema:url</t>
+  </si>
+  <si>
     <t>property_label</t>
   </si>
   <si>
-    <t>{'Coverage': 690}</t>
-  </si>
-  <si>
-    <t>{'Creator': 422}</t>
-  </si>
-  <si>
-    <t>{'Description': 956}</t>
-  </si>
-  <si>
-    <t>{'Extent': 862}</t>
-  </si>
-  <si>
-    <t>{'Identifier': 967}</t>
-  </si>
-  <si>
-    <t>{'Is Part Of': 967}</t>
-  </si>
-  <si>
-    <t>{'Date Issued': 652}</t>
-  </si>
-  <si>
-    <t>{'Mediator': 449}</t>
-  </si>
-  <si>
-    <t>{'Publisher': 1297}</t>
-  </si>
-  <si>
-    <t>{'Title': 2901}</t>
+    <t>{'Identifier': 1024}</t>
+  </si>
+  <si>
+    <t>{'Date Modified': 1024}</t>
+  </si>
+  <si>
+    <t>{'Title': 1023}</t>
+  </si>
+  <si>
+    <t>{'成立': 1023}</t>
+  </si>
+  <si>
+    <t>{'差出': 414}</t>
+  </si>
+  <si>
+    <t>{'欠損': 209}</t>
+  </si>
+  <si>
+    <t>{'宛所': 340}</t>
+  </si>
+  <si>
+    <t>{'形状': 1023}</t>
+  </si>
+  <si>
+    <t>{'遺文': 607}</t>
+  </si>
+  <si>
+    <t>{'和暦年月日': 488}</t>
+  </si>
+  <si>
+    <t>{'和暦': 207}</t>
+  </si>
+  <si>
+    <t>{'神奈川県史': 659}</t>
+  </si>
+  <si>
+    <t>{'金文番号': 1024}</t>
+  </si>
+  <si>
+    <t>{'料紙': 1024}</t>
+  </si>
+  <si>
+    <t>{'付加情報': 714}</t>
+  </si>
+  <si>
+    <t>{'整理番号': 1024}</t>
+  </si>
+  <si>
+    <t>{'連続情報': 107}</t>
+  </si>
+  <si>
+    <t>{'紙背': 1017}</t>
+  </si>
+  <si>
+    <t>{'史料名': 1023}</t>
+  </si>
+  <si>
+    <t>{'transcript': 1023}</t>
+  </si>
+  <si>
+    <t>{'紙数': 2039}</t>
+  </si>
+  <si>
+    <t>{'西暦コード': 488}</t>
+  </si>
+  <si>
+    <t>{'url': 486}</t>
   </si>
   <si>
     <t>is_public</t>
   </si>
   <si>
-    <t>{True: 690}</t>
-  </si>
-  <si>
-    <t>{True: 422}</t>
-  </si>
-  <si>
-    <t>{True: 956}</t>
-  </si>
-  <si>
-    <t>{True: 862}</t>
-  </si>
-  <si>
-    <t>{True: 967}</t>
-  </si>
-  <si>
-    <t>{True: 652}</t>
-  </si>
-  <si>
-    <t>{True: 449}</t>
-  </si>
-  <si>
-    <t>{True: 1297}</t>
-  </si>
-  <si>
-    <t>{True: 2901}</t>
+    <t>{True: 1024}</t>
+  </si>
+  <si>
+    <t>{True: 1023}</t>
+  </si>
+  <si>
+    <t>{True: 414}</t>
+  </si>
+  <si>
+    <t>{True: 209}</t>
+  </si>
+  <si>
+    <t>{True: 340}</t>
+  </si>
+  <si>
+    <t>{True: 607}</t>
+  </si>
+  <si>
+    <t>{True: 488}</t>
+  </si>
+  <si>
+    <t>{True: 207}</t>
+  </si>
+  <si>
+    <t>{True: 659}</t>
+  </si>
+  <si>
+    <t>{True: 714}</t>
+  </si>
+  <si>
+    <t>{True: 107}</t>
+  </si>
+  <si>
+    <t>{True: 1017}</t>
+  </si>
+  <si>
+    <t>{True: 2039}</t>
+  </si>
+  <si>
+    <t>{True: 486}</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>{'literal': 690}</t>
-  </si>
-  <si>
-    <t>{'literal': 422}</t>
-  </si>
-  <si>
-    <t>{'literal': 956}</t>
-  </si>
-  <si>
-    <t>{'literal': 862}</t>
-  </si>
-  <si>
-    <t>{'literal': 967}</t>
-  </si>
-  <si>
-    <t>{'literal': 652}</t>
-  </si>
-  <si>
-    <t>{'literal': 449}</t>
-  </si>
-  <si>
-    <t>{'literal': 1297}</t>
-  </si>
-  <si>
-    <t>{'literal': 2901}</t>
+    <t>{'literal': 1024}</t>
+  </si>
+  <si>
+    <t>{'literal': 1023}</t>
+  </si>
+  <si>
+    <t>{'literal': 414}</t>
+  </si>
+  <si>
+    <t>{'literal': 209}</t>
+  </si>
+  <si>
+    <t>{'literal': 340}</t>
+  </si>
+  <si>
+    <t>{'literal': 607}</t>
+  </si>
+  <si>
+    <t>{'literal': 488}</t>
+  </si>
+  <si>
+    <t>{'literal': 207}</t>
+  </si>
+  <si>
+    <t>{'literal': 659}</t>
+  </si>
+  <si>
+    <t>{'literal': 714}</t>
+  </si>
+  <si>
+    <t>{'literal': 107}</t>
+  </si>
+  <si>
+    <t>{'literal': 1017}</t>
+  </si>
+  <si>
+    <t>{'literal': 2039}</t>
+  </si>
+  <si>
+    <t>{'literal': 486}</t>
   </si>
 </sst>
 </file>
@@ -471,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -496,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -510,13 +618,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -524,13 +632,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -538,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -552,13 +660,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -566,13 +674,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -580,13 +688,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -594,13 +702,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -608,13 +716,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -622,13 +730,195 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
